--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoneyViaMore_Interbank_Schedule.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoneyViaMore_Interbank_Schedule.xlsx
@@ -117,9 +117,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
     <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>AliOtherBank</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -578,13 +578,13 @@
         <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>23</v>
@@ -625,22 +625,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>29</v>
@@ -658,13 +658,13 @@
         <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>31</v>
@@ -673,25 +673,25 @@
         <v>6</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
         <v>10</v>
       </c>
       <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
       </c>
       <c r="Y2" t="s">
         <v>11</v>
